--- a/Use Case Description.xlsx
+++ b/Use Case Description.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project-Akhir-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F9030-E932-438A-BDA4-388B8C1DE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A520E-4579-4540-BA46-A99A6EF8AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{2132594E-C18E-4367-AAEC-4ACA2839C961}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="12" xr2:uid="{2132594E-C18E-4367-AAEC-4ACA2839C961}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel 2.4.1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabel 2.4.2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 2.4.3" sheetId="4" r:id="rId3"/>
+    <sheet name="Table 2.4.4" sheetId="3" r:id="rId4"/>
+    <sheet name="Tabel 2.4.5" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabel 2.4.6" sheetId="7" r:id="rId6"/>
+    <sheet name="Tabel 2.4.7" sheetId="8" r:id="rId7"/>
+    <sheet name="Tabel 2.4.8" sheetId="9" r:id="rId8"/>
+    <sheet name="Tabel 2.4.9" sheetId="10" r:id="rId9"/>
+    <sheet name="Tabel 2.4.10" sheetId="11" r:id="rId10"/>
+    <sheet name="Tabel 2.4.11" sheetId="12" r:id="rId11"/>
+    <sheet name="Tabel 2.4.12" sheetId="13" r:id="rId12"/>
+    <sheet name="Tabel 2.4.13" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="198">
   <si>
     <t>Stakeholder and Interest:</t>
   </si>
@@ -83,12 +94,6 @@
     <t>Use Case Name: Registrasi Pelanggan</t>
   </si>
   <si>
-    <t>Pelanggan – Ingin mendaftar sebagai pengguna GameBill.</t>
-  </si>
-  <si>
-    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan melakukan registrasi untuk menggunakan layanan GameBill.</t>
-  </si>
-  <si>
     <t>Trigger: Pelanggan ingin menggunakan layanan GameBill dan belum memiliki akun.</t>
   </si>
   <si>
@@ -110,15 +115,6 @@
     <t>Pelanggan – Ingin mengakses akun dan fitur GameBill.</t>
   </si>
   <si>
-    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan melakukan login untuk mengakses akun GameBill mereka.</t>
-  </si>
-  <si>
-    <t>Trigger: Pelanggan ingin mengakses akun mereka di GameBill.</t>
-  </si>
-  <si>
-    <t>Precondition: Pelanggan sudah memiliki akun yang terdaftar dan terverifikasi.</t>
-  </si>
-  <si>
     <t>9. Jika valid, sistem menampilkan pesan sukses registrasi.</t>
   </si>
   <si>
@@ -131,37 +127,520 @@
     <t xml:space="preserve">8a. Data registrasi tidak valid: </t>
   </si>
   <si>
-    <t>6. Pelanggan mengisi formulir registrasi dengan informasi yang dibutuhkan: username, alamat email, dan password.</t>
-  </si>
-  <si>
     <t>5. Website menampilkan halaman registrasi.</t>
   </si>
   <si>
     <t>3. Website menampilkan halaman login.</t>
   </si>
   <si>
-    <t>4. Pelanggan memasukkan nama pengguna dan kata sandi yang terdaftar.</t>
-  </si>
-  <si>
     <t>6. Pelanggan mengisi formulir registrasi dengan informasi yang dibutuhkan: nama pengguna, alamat email, dan kata sandi.</t>
   </si>
   <si>
     <t>5. Pelanggan menekan tombol "Login".</t>
   </si>
   <si>
-    <t>7. Sistem memvalidasi nama pengguna dan kata sandi.</t>
-  </si>
-  <si>
-    <t>8. Jika valid, sistem mengarahkan pelanggan ke halaman utama akun mereka.</t>
-  </si>
-  <si>
-    <t>9. Pelanggan dapat mengakses fitur-fitur yang tersedia di akun mereka.</t>
-  </si>
-  <si>
-    <t>7a. Nama pengguna atau kata sandi tidak valid:</t>
-  </si>
-  <si>
-    <t>Sistem memberikan notifikasi error dan meminta pelanggan untuk memasukkan kembali informasi yang benar.</t>
+    <t>Pelanggan – Ingin mendaftar sebagai pengguna GameBill untuk membeli game.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan melakukan registrasi untuk menggunakan platform e-commerce GameBill.</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin login ke akun GameBill untuk mengakses fitur e-commerce.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan melakukan login ke akun GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan ingin mengakses fitur GameBill yang memerlukan autentikasi.</t>
+  </si>
+  <si>
+    <t>Precondition: Pelanggan telah berhasil melakukan registrasi dan memiliki akun aktif.</t>
+  </si>
+  <si>
+    <t>4. Pelanggan mengisi nama pengguna dan kata sandi.</t>
+  </si>
+  <si>
+    <t>6. Sistem memvalidasi kredensial login.</t>
+  </si>
+  <si>
+    <t>7. Jika kredensial valid, pelanggan berhasil masuk dan diarahkan ke halaman utama.</t>
+  </si>
+  <si>
+    <t>5a. Kredensial tidak valid:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan notifikasi error dan meminta pelanggan untuk memasukkan kembali nama pengguna dan kata sandi yang benar.</t>
+  </si>
+  <si>
+    <t>Use Case Name: Melihat Detail Game</t>
+  </si>
+  <si>
+    <t>ID: UC3</t>
+  </si>
+  <si>
+    <t>Importance Level: Medium</t>
+  </si>
+  <si>
+    <t>ID: UC4</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan melihat informasi detail tentang game di GameBill.</t>
+  </si>
+  <si>
+    <t>Precondition: Pelanggan telah login ke akun GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan ingin mengetahui lebih banyak informasi tentang game yang tersedia di GameBill.</t>
+  </si>
+  <si>
+    <t>1. Pelanggan membuka website GameBill dan masuk ke halaman utama.</t>
+  </si>
+  <si>
+    <t>2. Pelanggan menjelajahi dan memilih game yang diinginkan.</t>
+  </si>
+  <si>
+    <t>3. Pelanggan mengklik game untuk melihat detail.</t>
+  </si>
+  <si>
+    <t>4. Sistem menampilkan informasi lengkap mengenai game: deskripsi, harga, platform, dan genre.</t>
+  </si>
+  <si>
+    <t>4a. Data game tidak ditemukan:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan notifikasi bahwa data game tidak tersedia atau game tidak ditemukan.</t>
+  </si>
+  <si>
+    <t>Use Case Name: Menjelajahi Game</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin mencari dan menjelajahi berbagai game yang tersedia di platform e-commerce GameBill.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan dapat menjelajahi berbagai game yang tersedia di halaman jelajah GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan mengunjungi halaman jelajah GameBill untuk mencari game yang diinginkan.</t>
+  </si>
+  <si>
+    <t>Precondition: Pelanggan telah mengakses website GameBill.</t>
+  </si>
+  <si>
+    <t>1. Pelanggan membuka halaman jelajah GameBill.</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan daftar game yang tersedia.</t>
+  </si>
+  <si>
+    <t>4. Pelanggan dapat menggunakan filter untuk mempersempit hasil pencarian berdasarkan kriteria tertentu seperti genre, dan platform.</t>
+  </si>
+  <si>
+    <t>3. Pelanggan dapat menggunakan fitur pencarian untuk mencari game berdasarkan nama.</t>
+  </si>
+  <si>
+    <t>4a. Tidak ada game yang sesuai dengan filter:</t>
+  </si>
+  <si>
+    <t>3a. Tidak ada game yang sesuai dengan pencarian:</t>
+  </si>
+  <si>
+    <t>Sistem menampilkan pesan bahwa tidak ada game yang cocok dengan kriteria pencarian dan menyarankan pelanggan untuk melakukan pencarian ulang.</t>
+  </si>
+  <si>
+    <t>Sistem menampilkan pesan bahwa tidak ada game yang cocok dengan kriteria filter dan menyarankan pelanggan untuk mengubah filter.</t>
+  </si>
+  <si>
+    <t>ID: UC5</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin menambahkan game yang diinginkan ke dalam keranjang belanja untuk pembelian.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan menambahkan game ke dalam keranjang belanja di GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan ingin membeli game dan menambahkannya ke keranjang belanja.</t>
+  </si>
+  <si>
+    <t>Precondition: Pelanggan telah login ke akun GameBill dan sedang melihat detail game.</t>
+  </si>
+  <si>
+    <t>Extend: Tambah List, Hapus List</t>
+  </si>
+  <si>
+    <t>1. Pelanggan melihat detail game yang ingin dibeli.</t>
+  </si>
+  <si>
+    <t>2. Pelanggan menekan tombol "Add to Cart".</t>
+  </si>
+  <si>
+    <t>3. Sistem menambahkan game ke keranjang belanja pelanggan.</t>
+  </si>
+  <si>
+    <t>4. Sistem menampilkan pesan bahwa game berhasil ditambahkan ke keranjang.</t>
+  </si>
+  <si>
+    <t>3a. Game sudah ada di keranjang:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan notifikasi bahwa game sudah ada di keranjang belanja.</t>
+  </si>
+  <si>
+    <t>3b. Gagal menambahkan game ke keranjang:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan pesan error dan meminta pelanggan untuk mencoba lagi.</t>
+  </si>
+  <si>
+    <t>Extend: Melihat Detail Game</t>
+  </si>
+  <si>
+    <t>Include: Registrasi Pelanggan, Login Pelanggan, Melihat Detail Game</t>
+  </si>
+  <si>
+    <t>Use Case Name: Menambahkan Game ke Keranjang</t>
+  </si>
+  <si>
+    <t>Use Case Name: Mengelola Keranjang Belanja</t>
+  </si>
+  <si>
+    <t>ID: UC6</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin mengelola game yang ada di keranjang belanja sebelum checkout.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan mengelola isi keranjang belanja di GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan ingin melihat, menambah, atau menghapus game di keranjang belanja sebelum melakukan checkout.</t>
+  </si>
+  <si>
+    <t>Precondition: Pelanggan telah login ke akun GameBill dan memiliki game di keranjang belanja.</t>
+  </si>
+  <si>
+    <t>1. Pelanggan membuka halaman keranjang belanja.</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan daftar game yang ada di keranjang belanja.</t>
+  </si>
+  <si>
+    <t>3. Pelanggan dapat menambah game ke keranjang belanja dengan kembali ke halaman detail game dan menambahkannya.</t>
+  </si>
+  <si>
+    <t>4. Pelanggan dapat menghapus game dari keranjang belanja dengan menekan tombol ikon "Sampah" di sebelah game yang diinginkan.</t>
+  </si>
+  <si>
+    <t>5. Sistem memperbarui keranjang belanja sesuai dengan perubahan yang dilakukan oleh pelanggan.</t>
+  </si>
+  <si>
+    <t>3a. Gagal menambah game ke keranjang:</t>
+  </si>
+  <si>
+    <t>4a. Game tidak dapat dihapus:</t>
+  </si>
+  <si>
+    <t>ID: UC7</t>
+  </si>
+  <si>
+    <t>Use Case Name: Checkout</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin menyelesaikan pembelian game di keranjang belanja.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan menyelesaikan proses pembelian game melalui fitur checkout di GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan telah memilih game yang ingin dibeli dan ingin menyelesaikan transaksi.</t>
+  </si>
+  <si>
+    <t>Include: Mengelola Keranjang Belanja</t>
+  </si>
+  <si>
+    <t>1. Pelanggan membuka halaman keranjang belanja dan menekan tombol "Checkout".</t>
+  </si>
+  <si>
+    <t>2. Sistem membuat invoice pesanan.</t>
+  </si>
+  <si>
+    <t>4. Pelanggan memasukkan informasi yang diperlukan untuk proses pembayaran (misalnya, foto bukti pembayaran).</t>
+  </si>
+  <si>
+    <t>3. Pelanggan menuju halaman riwayat transaksi pada menu pelanggan.</t>
+  </si>
+  <si>
+    <t>7. Pelanggan menerima kode serial untuk mengakses game yang telah dibeli.</t>
+  </si>
+  <si>
+    <t>6. Setelah pembayaran berhasil, sistem memperbarui status pesanan dan mengirimkan kode serial melalui email.</t>
+  </si>
+  <si>
+    <t>2a. Gagal membuat invoice:</t>
+  </si>
+  <si>
+    <t>5a. Pembayaran gagal:</t>
+  </si>
+  <si>
+    <t>5. Sistem memproses bukti pembayaran.</t>
+  </si>
+  <si>
+    <t>Sistem memberikan pesan error dan meminta pelanggan untuk mengirim ulang bukti pembayaran.</t>
+  </si>
+  <si>
+    <t>6a. Gagal mengirim email:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan pesan error dan meminta pelanggan untuk menunggu beberapa saat.</t>
+  </si>
+  <si>
+    <t>Use Case Name: Akses Menu Pelanggan</t>
+  </si>
+  <si>
+    <t>ID: UC8</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin mengakses berbagai fitur personalisasi dan pengaturan akun di menu pelanggan.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan dapat mengakses dan menggunakan menu pelanggan di GameBill.</t>
+  </si>
+  <si>
+    <t>Include: Registrasi Pelanggan, Login Pelanggan</t>
+  </si>
+  <si>
+    <t>Extend: Melihat Riwayat Transaksi</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan halaman menu pelanggan dengan berbagai opsi seperti melihat riwayat transaksi.</t>
+  </si>
+  <si>
+    <t>1. Pelanggan menekan ikon "User" dikanan atas.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan menekan ikon "User" dikanan atas setelah login.</t>
+  </si>
+  <si>
+    <t>1a. Pelanggan belum login:</t>
+  </si>
+  <si>
+    <t>Sistem menampilkan halaman login terlebih dahulu.</t>
+  </si>
+  <si>
+    <t>Use Case Name: Melihat Riwayat Transaksi</t>
+  </si>
+  <si>
+    <t>ID: UC9</t>
+  </si>
+  <si>
+    <t>Pelanggan – Ingin melihat daftar transaksi pembelian game yang telah dilakukan sebelumnya.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pelanggan dapat melihat riwayat transaksi pembelian game di GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pelanggan memilih opsi untuk melihat riwayat transaksi dari menu pelanggan.</t>
+  </si>
+  <si>
+    <t>Precondition: Pelanggan telah login dan mengakses menu pelanggan.</t>
+  </si>
+  <si>
+    <t>1. Pelanggan mengklik opsi untuk melihat riwayat transaksi di menu pelanggan.</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan halaman riwayat transaksi.</t>
+  </si>
+  <si>
+    <t>3. Pelanggan melihat daftar transaksi pembelian game yang telah dilakukan, termasuk detail transaksi seperti tanggal, nama game, dan status pembelian.</t>
+  </si>
+  <si>
+    <t>2a. Tidak ada transaksi:</t>
+  </si>
+  <si>
+    <t>Sistem menampilkan pesan "Tidak ada transaksi yang ditemukan" jika pelanggan belum melakukan pembelian apapun.</t>
+  </si>
+  <si>
+    <t>3a. Gagal menampilkan riwayat transaksi:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan pesan error "Maaf, terjadi kesalahan saat menampilkan riwayat transaksi. Silakan coba lagi nanti atau hubungi dukungan pelanggan."</t>
+  </si>
+  <si>
+    <t>Use Case Name: Mengelola Detail Game</t>
+  </si>
+  <si>
+    <t>ID: UC10</t>
+  </si>
+  <si>
+    <t>Primary Actor: Pengurus</t>
+  </si>
+  <si>
+    <t>Pengurus – Ingin mengelola informasi detail tentang game yang tersedia di GameBill.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pengurus mengelola detail game yang ditampilkan di platform e-commerce GameBill.</t>
+  </si>
+  <si>
+    <t>Association:  Pengurus</t>
+  </si>
+  <si>
+    <t>Extend: Insert, Edit, Delete</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan daftar game yang sudah ada.</t>
+  </si>
+  <si>
+    <t>3. Pengurus memilih opsi untuk menambah game baru.</t>
+  </si>
+  <si>
+    <t>5. Sistem memvalidasi data dan menambahkan game ke daftar.</t>
+  </si>
+  <si>
+    <t>6. Pengurus memilih game yang sudah ada untuk diperbarui.</t>
+  </si>
+  <si>
+    <t>8. Sistem memvalidasi dan memperbarui informasi game.</t>
+  </si>
+  <si>
+    <t>9. Pengurus memilih game yang sudah ada untuk dihapus.</t>
+  </si>
+  <si>
+    <t>4. Pengurus mengisi formulir dengan detail game yang baru dan menekan tombol "Create".</t>
+  </si>
+  <si>
+    <t>7. Pengurus memperbarui informasi game dan menekan tombol "Update".</t>
+  </si>
+  <si>
+    <t>10. Pengurus menekan ikon "Sampah" dan sistem menghapus game dari daftar.</t>
+  </si>
+  <si>
+    <t>4a. Data tidak valid:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan notifikasi error dan meminta pengurus untuk mengisi kembali informasi yang benar.</t>
+  </si>
+  <si>
+    <t>7a. Gagal memperbarui informasi game:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan pesan error dan meminta pengurus untuk mencoba lagi.</t>
+  </si>
+  <si>
+    <t>10a. Gagal menghapus game:</t>
+  </si>
+  <si>
+    <t>ID: UC11</t>
+  </si>
+  <si>
+    <t>Pengurus – Ingin mengakses berbagai fitur pengelolaan dan administrasi di GameBill.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pengurus dapat mengakses dan menggunakan menu pengelola di GameBill.</t>
+  </si>
+  <si>
+    <t>Use Case Name: Akses Menu Pengurus</t>
+  </si>
+  <si>
+    <t>Trigger: Pengurus menekan ikon "User" dikanan atas setelah login.</t>
+  </si>
+  <si>
+    <t>Precondition: Pengurus telah login ke akun pengurus GameBill.</t>
+  </si>
+  <si>
+    <t>Include: Login Pengurus</t>
+  </si>
+  <si>
+    <t>Extend: Mengelola Detail Game, Mengelola Harga, Mengelola Invoice</t>
+  </si>
+  <si>
+    <t>1. Pengurus menekan ikon "User" dikanan atas.</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan halaman menu pengurus dengan berbagai opsi seperti pengelolaan detail game, harga, dan invoice.</t>
+  </si>
+  <si>
+    <t>3a. Pengelola belum login:</t>
+  </si>
+  <si>
+    <t>Use Case Name: Mengelola Harga</t>
+  </si>
+  <si>
+    <t>Pengurus – Ingin mengelola harga game di platform GameBill.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pengurus dapat mengelola harga game di GameBill.</t>
+  </si>
+  <si>
+    <t>Precondition: Pengurus telah login dan mengakses menu pengurus.</t>
+  </si>
+  <si>
+    <t>Trigger: Pengurus ingin memperbarui, menambah, atau menghapus informasi game dari menu pengurus.</t>
+  </si>
+  <si>
+    <t>Trigger: Pengurus ingin memperbarui, menambah, atau menghapus harga game dari menu pengurus.</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan harga game yang sudah ada.</t>
+  </si>
+  <si>
+    <t>4. Pengelola dapat menambahkan, memperbarui, atau menghapus harga game.</t>
+  </si>
+  <si>
+    <t>4a. Data harga tidak valid:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan notifikasi error dan meminta pengelola untuk mengisi kembali informasi yang benar.</t>
+  </si>
+  <si>
+    <t>4b. Gagal memperbarui harga:</t>
+  </si>
+  <si>
+    <t>Sistem memberikan pesan error dan menyarankan pengelola untuk mencoba kembali atau menghubungi dukungan teknis.</t>
+  </si>
+  <si>
+    <t>ID: UC12</t>
+  </si>
+  <si>
+    <t>ID: UC13</t>
+  </si>
+  <si>
+    <t>Use Case Name: Mengelola Invoice</t>
+  </si>
+  <si>
+    <t>Pengurus – Ingin mengelola invoice pembelian game di platform GameBill.</t>
+  </si>
+  <si>
+    <t>Brief Description: Use case ini menjelaskan bagaimana seorang pengurus dapat mengelola invoice di GameBill.</t>
+  </si>
+  <si>
+    <t>Trigger: Pengurus ingin memperbarui, menambah, atau menghapus invoice dari menu pengurus.</t>
+  </si>
+  <si>
+    <t>1. Pengurus membuka halaman create, update, delete di menu pengurus.</t>
+  </si>
+  <si>
+    <t>1. Pengurus membuka halaman invoice di menu pengurus.</t>
+  </si>
+  <si>
+    <t>2. Sistem menampilkan halaman pengelolaan invoice.</t>
+  </si>
+  <si>
+    <t>3. Pengelola melihat daftar invoice yang ada.</t>
+  </si>
+  <si>
+    <t>4. Pengelola dapat menambahkan, memperbarui, atau menghapus invoice.</t>
+  </si>
+  <si>
+    <t>5. Sistem memperbarui daftar harga game sesuai dengan tindakan pengurus.</t>
+  </si>
+  <si>
+    <t>5. Sistem memperbarui daftar invoice sesuai dengan tindakan pengurus.</t>
+  </si>
+  <si>
+    <t>4a. Data invoice tidak valid:</t>
+  </si>
+  <si>
+    <t>4b. Gagal memperbarui invoice:</t>
   </si>
 </sst>
 </file>
@@ -329,27 +808,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -361,28 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,6 +838,58 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,76 +1208,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A442FCF7-9367-4900-A900-1F3CFA944E40}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -806,112 +1299,123 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:C17"/>
@@ -926,242 +1430,1077 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A75201-DC99-4D80-9067-E5962FDD7C40}">
-  <dimension ref="A1:C26"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2387F8FB-6DB6-4787-845E-681FA489DA10}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A17:C17"/>
+  <mergeCells count="18">
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20216682-70AF-48C4-B386-78CCD2072646}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45F2B2B-E1D9-44C3-8D43-376BAC463028}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742AFCA7-33F8-4E38-807A-C17CE94683B8}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A75201-DC99-4D80-9067-E5962FDD7C40}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -1169,8 +2508,1461 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811D89A5-FEFE-4B00-8C36-A5F3A0905169}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF350EB-E0C4-413A-A33B-90487CE407CF}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67424BC4-5E62-4CB6-92B4-91C3894D625D}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B70D0-2BA3-4AB9-8967-7C3919CB448B}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7751E27E-8E73-42EE-99E4-CF99971150DE}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021CF7BA-F528-4EF7-8ADE-5B4AB90B7266}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B4203-A73D-49BE-816F-A0E6CA4D2B1F}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
